--- a/Bertmodel/Test/chitchat.xlsx
+++ b/Bertmodel/Test/chitchat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="220">
   <si>
     <t>text</t>
   </si>
@@ -385,6 +385,297 @@
   </si>
   <si>
     <t>EOS nedir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QNT nedir? </t>
+  </si>
+  <si>
+    <t>QNT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HBAR nedir? </t>
+  </si>
+  <si>
+    <t>HBAR</t>
+  </si>
+  <si>
+    <t>MINA nedir?</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEO nedir? </t>
+  </si>
+  <si>
+    <t>NEO</t>
+  </si>
+  <si>
+    <t>LRC nedir?</t>
+  </si>
+  <si>
+    <t>LRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LRC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKR nedir? </t>
+  </si>
+  <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP nedir? </t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>MAGIC</t>
+  </si>
+  <si>
+    <t>MAGIC nedir?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GNO nedir? </t>
+  </si>
+  <si>
+    <t>GNO</t>
+  </si>
+  <si>
+    <t>WAVES nedir?</t>
+  </si>
+  <si>
+    <t>WAVES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quant </t>
+  </si>
+  <si>
+    <t>Hedera</t>
+  </si>
+  <si>
+    <t>Loopring</t>
+  </si>
+  <si>
+    <t>Maker</t>
+  </si>
+  <si>
+    <t>Optimism</t>
+  </si>
+  <si>
+    <t>Gnosis</t>
+  </si>
+  <si>
+    <t>WAVES nedir</t>
+  </si>
+  <si>
+    <t>waves</t>
+  </si>
+  <si>
+    <t>Nasıl Bitcoin alınır</t>
+  </si>
+  <si>
+    <t>Nereden Bitcoin alınır</t>
+  </si>
+  <si>
+    <t>Kaç tane bitcoin var</t>
+  </si>
+  <si>
+    <t>Bitcoin sayısı</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash</t>
+  </si>
+  <si>
+    <t>Bitcoin Cash nedir</t>
+  </si>
+  <si>
+    <t>Kripto para saklama</t>
+  </si>
+  <si>
+    <t>saklama</t>
+  </si>
+  <si>
+    <t>para saklama</t>
+  </si>
+  <si>
+    <t>Fiziki karşılık</t>
+  </si>
+  <si>
+    <t>fiziksel karşılık</t>
+  </si>
+  <si>
+    <t>madencilik nedir</t>
+  </si>
+  <si>
+    <t>madencilik yapmak</t>
+  </si>
+  <si>
+    <t>madencilik nasıl yapılır</t>
+  </si>
+  <si>
+    <t>madencilik yap</t>
+  </si>
+  <si>
+    <t>ASIC</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>gpu madenciliği</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>CPU madencilik</t>
+  </si>
+  <si>
+    <t>Bulut madenciliği</t>
+  </si>
+  <si>
+    <t>Bulut</t>
+  </si>
+  <si>
+    <t>NFT</t>
+  </si>
+  <si>
+    <t>NFT nedir?</t>
+  </si>
+  <si>
+    <t>Airdrop nedir</t>
+  </si>
+  <si>
+    <t>Airdrop</t>
+  </si>
+  <si>
+    <t>Ape in</t>
+  </si>
+  <si>
+    <t>Apein</t>
+  </si>
+  <si>
+    <t>Balina nedir</t>
+  </si>
+  <si>
+    <t>Balina</t>
+  </si>
+  <si>
+    <t>Cüzdan</t>
+  </si>
+  <si>
+    <t>wallet</t>
+  </si>
+  <si>
+    <t>Cüzdan nedir</t>
+  </si>
+  <si>
+    <t>Delist</t>
+  </si>
+  <si>
+    <t>Delist nedir</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>DEX nedir</t>
+  </si>
+  <si>
+    <t>Decentralized Exchange</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>Drop nedir</t>
+  </si>
+  <si>
+    <t>Elmas eller</t>
+  </si>
+  <si>
+    <t>Diamond hands</t>
+  </si>
+  <si>
+    <t>Gaz ücreti</t>
+  </si>
+  <si>
+    <t>Gas fee</t>
+  </si>
+  <si>
+    <t>Likidite</t>
+  </si>
+  <si>
+    <t>Likit</t>
+  </si>
+  <si>
+    <t>Mavi çip</t>
+  </si>
+  <si>
+    <t>Blue chip</t>
+  </si>
+  <si>
+    <t>Mint etmek</t>
+  </si>
+  <si>
+    <t>Mint</t>
+  </si>
+  <si>
+    <t>ytd</t>
+  </si>
+  <si>
+    <t>ytd nedir</t>
+  </si>
+  <si>
+    <t>Token nedir</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Vergi</t>
+  </si>
+  <si>
+    <t>Vergiler</t>
+  </si>
+  <si>
+    <t>nasıl Bitcoin alma</t>
+  </si>
+  <si>
+    <t>Nereden Bitcoin</t>
+  </si>
+  <si>
+    <t>SaklamaKripto</t>
+  </si>
+  <si>
+    <t>Fizikselkarşılık</t>
+  </si>
+  <si>
+    <t>Madencilik</t>
+  </si>
+  <si>
+    <t>madencilikyapmak</t>
+  </si>
+  <si>
+    <t>ASIC madenciliği</t>
+  </si>
+  <si>
+    <t>GPU Madenciliği</t>
+  </si>
+  <si>
+    <t>NFT nedir</t>
+  </si>
+  <si>
+    <t>Balinalar</t>
+  </si>
+  <si>
+    <t>mavi çip</t>
   </si>
 </sst>
 </file>
@@ -456,8 +747,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="B1:C98" totalsRowShown="0">
-  <autoFilter ref="B1:C98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="B1:C182" totalsRowShown="0">
+  <autoFilter ref="B1:C182"/>
   <tableColumns count="2">
     <tableColumn id="1" name="text"/>
     <tableColumn id="2" name="label"/>
@@ -753,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C98"/>
+  <dimension ref="B1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1546,6 +1837,678 @@
       </c>
       <c r="C98" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+      <c r="C102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>137</v>
+      </c>
+      <c r="C111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>138</v>
+      </c>
+      <c r="C112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>140</v>
+      </c>
+      <c r="C114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>141</v>
+      </c>
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>142</v>
+      </c>
+      <c r="C116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>143</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>144</v>
+      </c>
+      <c r="C118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>145</v>
+      </c>
+      <c r="C119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>147</v>
+      </c>
+      <c r="C121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>151</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>152</v>
+      </c>
+      <c r="C126" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>157</v>
+      </c>
+      <c r="C131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>159</v>
+      </c>
+      <c r="C133" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>160</v>
+      </c>
+      <c r="C134" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>162</v>
+      </c>
+      <c r="C136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>163</v>
+      </c>
+      <c r="C137" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>164</v>
+      </c>
+      <c r="C138" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>165</v>
+      </c>
+      <c r="C139" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>167</v>
+      </c>
+      <c r="C141" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>169</v>
+      </c>
+      <c r="C143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>170</v>
+      </c>
+      <c r="C144" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>171</v>
+      </c>
+      <c r="C145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>173</v>
+      </c>
+      <c r="C147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>174</v>
+      </c>
+      <c r="C148" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>175</v>
+      </c>
+      <c r="C149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>177</v>
+      </c>
+      <c r="C151" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>178</v>
+      </c>
+      <c r="C152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>179</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>180</v>
+      </c>
+      <c r="C154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>182</v>
+      </c>
+      <c r="C156" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>183</v>
+      </c>
+      <c r="C157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+      <c r="C159" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>186</v>
+      </c>
+      <c r="C160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>187</v>
+      </c>
+      <c r="C161" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>188</v>
+      </c>
+      <c r="C162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>189</v>
+      </c>
+      <c r="C163" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>191</v>
+      </c>
+      <c r="C165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>192</v>
+      </c>
+      <c r="C166" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>193</v>
+      </c>
+      <c r="C167" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>194</v>
+      </c>
+      <c r="C168" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>195</v>
+      </c>
+      <c r="C169" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>196</v>
+      </c>
+      <c r="C170" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>197</v>
+      </c>
+      <c r="C171" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>198</v>
+      </c>
+      <c r="C172" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>199</v>
+      </c>
+      <c r="C173" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>200</v>
+      </c>
+      <c r="C174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>201</v>
+      </c>
+      <c r="C175" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>202</v>
+      </c>
+      <c r="C176" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>203</v>
+      </c>
+      <c r="C177" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>204</v>
+      </c>
+      <c r="C178" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>205</v>
+      </c>
+      <c r="C179" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>206</v>
+      </c>
+      <c r="C180" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>207</v>
+      </c>
+      <c r="C181" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>208</v>
+      </c>
+      <c r="C182" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
